--- a/Compiladores/Exercicios/aula3.xlsx
+++ b/Compiladores/Exercicios/aula3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1512130077\Documents\git\2019_1\Compiladores\Exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/git/2019_1/Compiladores/Exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC56E096-6E83-D141-B09A-88C91BDC3659}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>A</t>
   </si>
@@ -93,12 +94,120 @@
   </si>
   <si>
     <t>A -&gt; CD</t>
+  </si>
+  <si>
+    <t>Movimentos do analisador preditivo tabular para z y x - * * x *</t>
+  </si>
+  <si>
+    <t>Pilha</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Derivação</t>
+  </si>
+  <si>
+    <t>$ A</t>
+  </si>
+  <si>
+    <t>$ D C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ D z </t>
+  </si>
+  <si>
+    <t>$ D</t>
+  </si>
+  <si>
+    <t>$ D B A</t>
+  </si>
+  <si>
+    <t>$ D B D C</t>
+  </si>
+  <si>
+    <t>$ D B D y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ D B D </t>
+  </si>
+  <si>
+    <t>$ D B D B A</t>
+  </si>
+  <si>
+    <t>$ D B D B D C</t>
+  </si>
+  <si>
+    <t>$ D B D B D x</t>
+  </si>
+  <si>
+    <t>$ D B D B D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ D B D B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ D B D - </t>
+  </si>
+  <si>
+    <t>$ D B D</t>
+  </si>
+  <si>
+    <t>$ D B</t>
+  </si>
+  <si>
+    <t>$ D *</t>
+  </si>
+  <si>
+    <t>z y x - * * x * $</t>
+  </si>
+  <si>
+    <t>y x - * * x * $</t>
+  </si>
+  <si>
+    <t>x - * * x * $</t>
+  </si>
+  <si>
+    <t>- * * x * $</t>
+  </si>
+  <si>
+    <t>* * x * $</t>
+  </si>
+  <si>
+    <t>* x * $</t>
+  </si>
+  <si>
+    <t>x * $</t>
+  </si>
+  <si>
+    <t>* $</t>
+  </si>
+  <si>
+    <t>Desenpilha</t>
+  </si>
+  <si>
+    <t>Aceita</t>
+  </si>
+  <si>
+    <t>Erro 2</t>
+  </si>
+  <si>
+    <t>Erro 1</t>
+  </si>
+  <si>
+    <t>Erro 1 - Insere o token x na entrada e emite a mensagem: operando esperado</t>
+  </si>
+  <si>
+    <t>Erro 2 - Retira o token da entrada e emite a mensagem: fim do arquivo encontrado</t>
+  </si>
+  <si>
+    <t>Sucesso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -152,13 +261,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,115 +559,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="K1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -561,127 +732,365 @@
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="K7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="K9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="K10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="K11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="K13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="K16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="K17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
